--- a/chncal/data/fate_weights/fate_weights.xlsx
+++ b/chncal/data/fate_weights/fate_weights.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14E665-6430-445C-961E-D25161DEA54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBA137-FDCC-4814-B0BE-3A2C7DE49C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="干支年" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="284">
   <si>
     <t>干支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,21 +182,6 @@
     <t>丙辰</t>
   </si>
   <si>
-    <t>己已</t>
-  </si>
-  <si>
-    <t>辛已</t>
-  </si>
-  <si>
-    <t>癸已</t>
-  </si>
-  <si>
-    <t>乙已</t>
-  </si>
-  <si>
-    <t>丁已</t>
-  </si>
-  <si>
     <t>庚午</t>
   </si>
   <si>
@@ -485,9 +470,6 @@
     <t>辰时</t>
   </si>
   <si>
-    <t>已时</t>
-  </si>
-  <si>
     <t>午时</t>
   </si>
   <si>
@@ -543,22 +525,6 @@
   </si>
   <si>
     <t>21:00-23:00</t>
-  </si>
-  <si>
-    <t>https://chenggu.xuenb.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wenku.baidu.com/view/372eab266429647d27284b73f242336c1eb93080.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhouyi.cc/bazi/sm/49663.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhouyi.cc/zhouyi/chengu/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二两一</t>
@@ -902,6 +868,52 @@
   </si>
   <si>
     <t>壬戌</t>
+  </si>
+  <si>
+    <t>己巳</t>
+  </si>
+  <si>
+    <t>辛巳</t>
+  </si>
+  <si>
+    <t>癸巳</t>
+  </si>
+  <si>
+    <t>乙巳</t>
+  </si>
+  <si>
+    <t>丁巳</t>
+  </si>
+  <si>
+    <t>巳时</t>
+  </si>
+  <si>
+    <t>八字排盘：https://zhms8.com/6881.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称骨算命：https://www.zhouyi.cc/zhouyi/chengu/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称骨算命：https://wenku.baidu.com/view/372eab266429647d27284b73f242336c1eb93080.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称命歌：https://chenggu.xuenb.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称骨算命：https://www.zhouyi.cc/bazi/sm/49663.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性合婚：http://www.ibazi.cn/article/39858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肖婚配，生肖歌：https://www.ddnx.com/shenghuo/242712.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1323,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1387,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,89 +1630,89 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
@@ -1711,7 +1723,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -1722,7 +1734,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
@@ -1733,95 +1745,95 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>14</v>
@@ -1832,29 +1844,29 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
@@ -1865,7 +1877,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
@@ -1876,18 +1888,18 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>15</v>
@@ -1898,7 +1910,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
@@ -1909,18 +1921,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>16</v>
@@ -1931,40 +1943,40 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
@@ -1975,18 +1987,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
@@ -1997,13 +2009,13 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2042,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2038,47 +2050,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -2086,50 +2098,50 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2156,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2168,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2164,31 +2176,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -2196,7 +2208,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2204,7 +2216,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -2212,15 +2224,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2228,15 +2240,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2244,15 +2256,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -2260,15 +2272,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -2276,87 +2288,87 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
@@ -2364,31 +2376,31 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
@@ -2396,10 +2408,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2427,10 +2439,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2438,10 +2450,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2449,54 +2461,54 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -2504,68 +2516,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2595,423 +2607,423 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3023,50 +3035,66 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://chenggu.xuenb.com/" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://wenku.baidu.com/view/372eab266429647d27284b73f242336c1eb93080.html" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.zhouyi.cc/bazi/sm/49663.html" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.zhouyi.cc/zhouyi/chengu/index.html" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://zhms8.com/6881.html" xr:uid="{67781335-C3DD-4B6C-962E-DE712C9576B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
